--- a/data/trans_dic/P44A$endoscopia-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P44A$endoscopia-Estudios-trans_dic.xlsx
@@ -664,7 +664,7 @@
         <v>0.5701003954306827</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>0.4263838104230165</v>
+        <v>0.4263838104230164</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.4687347856133007</v>
+        <v>0.458276032757101</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.4480794395162462</v>
+        <v>0.4419241513035192</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3723625884941628</v>
+        <v>0.3748946264421041</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.5383934486568943</v>
+        <v>0.5391786157205312</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.4182095692022105</v>
+        <v>0.4167496602497646</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3591927123882929</v>
+        <v>0.3573798193737029</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.5472111660716509</v>
+        <v>0.5517095057600404</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.4809690799299419</v>
+        <v>0.4729349837569008</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.3835342377799679</v>
+        <v>0.3827826054779438</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.7672836956110185</v>
+        <v>0.7589087028801675</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.722994479643245</v>
+        <v>0.7056498898052324</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.5110729366407513</v>
+        <v>0.5143080447131769</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.7840882183846579</v>
+        <v>0.7832263884786392</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.6899130241216923</v>
+        <v>0.6867101276335652</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.4763475688519614</v>
+        <v>0.4671146852739364</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.7375695481730301</v>
+        <v>0.7369477247590097</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.6678172670139589</v>
+        <v>0.6661812351104431</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.4732858718964216</v>
+        <v>0.4703526241075421</v>
       </c>
     </row>
     <row r="7">
@@ -773,7 +773,7 @@
         <v>0.5280959465473642</v>
       </c>
       <c r="K7" s="5" t="n">
-        <v>0.3740292538264415</v>
+        <v>0.3740292538264414</v>
       </c>
     </row>
     <row r="8">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.432404017389957</v>
+        <v>0.4409008258854986</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.4003662997014916</v>
+        <v>0.3990927602502261</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3445844797679363</v>
+        <v>0.3454161972270592</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.3423884873885805</v>
+        <v>0.3462428204025484</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.3640046553727376</v>
+        <v>0.3702982020698651</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2970476691683209</v>
+        <v>0.2968597120678191</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.4491345854974378</v>
+        <v>0.438699458514912</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.429122104530026</v>
+        <v>0.4333363724982063</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3334942350311903</v>
+        <v>0.335088991514742</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.7544700186030382</v>
+        <v>0.7405307901560476</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.6194442990958992</v>
+        <v>0.6390722420417292</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.4511167213632696</v>
+        <v>0.449312603287113</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.7244376078907687</v>
+        <v>0.7478994868486077</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.728250745088328</v>
+        <v>0.7281629042417408</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3956418997662636</v>
+        <v>0.39422951479172</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.6877972330285568</v>
+        <v>0.6853854255461267</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.6191007758826966</v>
+        <v>0.6251762900107877</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.406462716708972</v>
+        <v>0.407476175313381</v>
       </c>
     </row>
     <row r="10">
@@ -864,7 +864,7 @@
         <v>0.4157363745279231</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>0.5008502452484506</v>
+        <v>0.5008502452484507</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>0.5040779789498343</v>
@@ -873,7 +873,7 @@
         <v>0.5581876698722719</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>0.3121274827273786</v>
+        <v>0.3121274827273787</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>0.5796815789785336</v>
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3532789321346945</v>
+        <v>0.3509211446328147</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2386116823238373</v>
+        <v>0.204957920788078</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.4260711254699537</v>
+        <v>0.4243768913085875</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.2340058896641282</v>
+        <v>0.1633261670624754</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2621976338771196</v>
+        <v>0.2687786170639498</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2461478430987757</v>
+        <v>0.2480970660701568</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3719452969939028</v>
+        <v>0.3540402685151351</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3106370190998787</v>
+        <v>0.3051625509404181</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.3669466123326443</v>
+        <v>0.3660120109208921</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.8791189871108666</v>
+        <v>0.8724386192176037</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.6268159085507328</v>
+        <v>0.628484579607579</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.5827525073756656</v>
+        <v>0.5788969543956348</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.8055899363680872</v>
+        <v>0.804166811913393</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.8177275437456388</v>
+        <v>0.8609701851698348</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3903302097105519</v>
+        <v>0.3939062571508458</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.7841920092018233</v>
+        <v>0.7760109740739134</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.6250329442395024</v>
+        <v>0.6277677395975747</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4721969695312834</v>
+        <v>0.4778024080795452</v>
       </c>
     </row>
     <row r="13">
@@ -991,7 +991,7 @@
         <v>0.5354653798782355</v>
       </c>
       <c r="K13" s="5" t="n">
-        <v>0.3996011493233775</v>
+        <v>0.3996011493233776</v>
       </c>
     </row>
     <row r="14">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.5051888680355084</v>
+        <v>0.501643472450912</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.4437950323440349</v>
+        <v>0.4363410382984824</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.3959298016411192</v>
+        <v>0.3960058148859293</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.5083127949367454</v>
+        <v>0.5092307687151071</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.4596383469033323</v>
+        <v>0.4590690543197191</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.3303772610531127</v>
+        <v>0.3305191409810497</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.5462478907529397</v>
+        <v>0.542219612363236</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4721111151134927</v>
+        <v>0.473111068048274</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3754794659409453</v>
+        <v>0.3737972950332186</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.7122665810086291</v>
+        <v>0.70109128309333</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.5971779187878777</v>
+        <v>0.5985053595015752</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4698293236452653</v>
+        <v>0.4713707632269553</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7138688800122209</v>
+        <v>0.7064903035186734</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.6536680981185089</v>
+        <v>0.6494286915907582</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3980833799104601</v>
+        <v>0.3933575329040588</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.6825637877820925</v>
+        <v>0.6932352488956748</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.5973856267948098</v>
+        <v>0.5939233933416153</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4251160191113434</v>
+        <v>0.4211659064285182</v>
       </c>
     </row>
     <row r="16">
@@ -1289,31 +1289,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>21120</v>
+        <v>20649</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>23173</v>
+        <v>22855</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>55667</v>
+        <v>56045</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>33871</v>
+        <v>33921</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>25977</v>
+        <v>25886</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>67113</v>
+        <v>66774</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>59081</v>
+        <v>59567</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>54749</v>
+        <v>53834</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>128998</v>
+        <v>128745</v>
       </c>
     </row>
     <row r="7">
@@ -1324,31 +1324,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>34572</v>
+        <v>34194</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>37390</v>
+        <v>36493</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>76403</v>
+        <v>76887</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>49329</v>
+        <v>49274</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>42853</v>
+        <v>42654</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>89003</v>
+        <v>87278</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>79634</v>
+        <v>79567</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>76018</v>
+        <v>75831</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>159185</v>
+        <v>158198</v>
       </c>
     </row>
     <row r="8">
@@ -1433,31 +1433,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>21511</v>
+        <v>21933</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>31261</v>
+        <v>31161</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>99859</v>
+        <v>100100</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>10423</v>
+        <v>10540</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>13265</v>
+        <v>13495</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>72722</v>
+        <v>72676</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>36015</v>
+        <v>35178</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>49144</v>
+        <v>49627</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>178289</v>
+        <v>179141</v>
       </c>
     </row>
     <row r="11">
@@ -1468,31 +1468,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>37533</v>
+        <v>36839</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>48366</v>
+        <v>49899</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>130731</v>
+        <v>130208</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>22053</v>
+        <v>22768</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>26540</v>
+        <v>26536</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>96859</v>
+        <v>96513</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>55153</v>
+        <v>54960</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>70901</v>
+        <v>71597</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>217298</v>
+        <v>217840</v>
       </c>
     </row>
     <row r="12">
@@ -1577,31 +1577,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>5145</v>
+        <v>5110</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>6906</v>
+        <v>5932</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>55183</v>
+        <v>54964</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>2922</v>
+        <v>2040</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>4233</v>
+        <v>4339</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>23780</v>
+        <v>23968</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>10062</v>
+        <v>9577</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>14006</v>
+        <v>13759</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>82976</v>
+        <v>82764</v>
       </c>
     </row>
     <row r="15">
@@ -1612,31 +1612,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>12803</v>
+        <v>12705</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>18142</v>
+        <v>18190</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>75476</v>
+        <v>74977</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>10061</v>
+        <v>10043</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>13201</v>
+        <v>13899</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>37709</v>
+        <v>38054</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>21214</v>
+        <v>20993</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>28181</v>
+        <v>28304</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>106776</v>
+        <v>108043</v>
       </c>
     </row>
     <row r="16">
@@ -1721,31 +1721,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>55250</v>
+        <v>54863</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>70448</v>
+        <v>69265</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>225208</v>
+        <v>225251</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>53801</v>
+        <v>53899</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>52721</v>
+        <v>52655</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>174527</v>
+        <v>174602</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>117557</v>
+        <v>116691</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>129094</v>
+        <v>129367</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>411928</v>
+        <v>410083</v>
       </c>
     </row>
     <row r="19">
@@ -1756,31 +1756,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>77898</v>
+        <v>76676</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>94796</v>
+        <v>95007</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>267242</v>
+        <v>268119</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>75558</v>
+        <v>74777</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>74976</v>
+        <v>74489</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>210294</v>
+        <v>207797</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>146894</v>
+        <v>149190</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>163349</v>
+        <v>162402</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>466383</v>
+        <v>462050</v>
       </c>
     </row>
     <row r="20">
